--- a/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,61; 2,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 2,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,5; 1,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 2,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 2,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 1,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 2,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 1,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,1; 1,01</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,21%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,62; 158,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,11; 151,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,14; 94,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,94; 75,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,58; 68,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,06; 45,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; 89,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,85; 69,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,91; 40,86</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,2; 2,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,29; 1,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 3,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,15; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,19; 2,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,18; 3,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 2,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,22; 2,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 2,89</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,54%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,29; 150,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,04; 125,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,49; 193,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,81; 93,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 89,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,51; 97,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,02; 88,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,38; 78,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,22; 106,97</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 4,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 3,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 0,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 6,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 6,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 3,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 4,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,13; 3,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 1,78</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,02%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,17%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>73,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,3%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,69; 139,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,72; 110,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,19; 26,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,84; 224,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,29; 233,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,53; 148,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 145,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,18; 117,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,88; 57,68</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,21; 1,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 1,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 1,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 2,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 2,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,11; 2,64</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 2,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 1,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 1,9</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,83%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,41%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,78%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,03%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,57; 94,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 76,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 99,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,36; 75,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,87; 69,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 71,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,24; 68,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,46; 59,41</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,14; 64,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,13</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,46</t>
+          <t>-1,56; 1,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 1,32</t>
+          <t>-1,5; 1,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,01</t>
+          <t>-1,15; 0,92</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,95%</t>
+          <t>-12,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>-4,42%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,14; 94,16</t>
+          <t>-65,18; 93,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 45,96</t>
+          <t>-35,56; 43,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-32,91; 40,86</t>
+          <t>-34,2; 38,2</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>2,47</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,23</t>
+          <t>0,21; 3,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,62</t>
+          <t>-0,1; 15,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,89</t>
+          <t>0,63; 7,88</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>75,23%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,07%</t>
+          <t>81,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,54%</t>
+          <t>80,5%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,49; 193,63</t>
+          <t>8,0; 183,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 97,33</t>
+          <t>-2,2; 421,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 106,97</t>
+          <t>18,49; 259,56</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 0,52</t>
+          <t>-3,89; 0,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,89</t>
+          <t>-1,18; 3,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 1,78</t>
+          <t>-1,6; 1,82</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,17%</t>
+          <t>-34,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>39,15%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>2,79%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-71,19; 26,28</t>
+          <t>-69,82; 40,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 148,29</t>
+          <t>-22,97; 147,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 57,68</t>
+          <t>-32,14; 59,69</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,63</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,94</t>
+          <t>-0,1; 1,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 2,64</t>
+          <t>0,25; 10,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,9</t>
+          <t>0,46; 5,34</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>29,41%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>51,67%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,75; 99,57</t>
+          <t>-3,57; 94,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,9; 71,72</t>
+          <t>5,8; 249,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>11,14; 64,74</t>
+          <t>13,02; 164,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,29</t>
+          <t>-0,58; 2,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,05</t>
+          <t>-0,64; 2,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 1,37</t>
+          <t>-1,71; 1,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 2,26</t>
+          <t>-0,87; 2,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,12</t>
+          <t>-1,15; 2,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 1,27</t>
+          <t>-1,62; 1,39</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,08</t>
+          <t>-0,34; 1,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 1,72</t>
+          <t>-0,51; 1,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,92</t>
+          <t>-1,15; 0,88</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 158,69</t>
+          <t>-26,18; 151,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-31,11; 151,25</t>
+          <t>-27,42; 176,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,18; 93,06</t>
+          <t>-67,15; 97,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 75,9</t>
+          <t>-19,84; 83,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 68,97</t>
+          <t>-30,05; 69,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,56; 43,86</t>
+          <t>-37,1; 50,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 89,58</t>
+          <t>-10,11; 77,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 69,4</t>
+          <t>-15,07; 70,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 38,2</t>
+          <t>-33,36; 36,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,35</t>
+          <t>0,15; 2,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 1,9</t>
+          <t>-0,4; 1,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 3,0</t>
+          <t>0,17; 2,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 3,28</t>
+          <t>0,34; 3,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,88</t>
+          <t>0,03; 3,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 15,38</t>
+          <t>-0,16; 14,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,35</t>
+          <t>0,56; 2,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,03</t>
+          <t>0,19; 2,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,88</t>
+          <t>0,61; 7,75</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,29; 150,79</t>
+          <t>3,28; 140,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 125,95</t>
+          <t>-14,6; 105,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,0; 183,28</t>
+          <t>5,86; 178,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 93,25</t>
+          <t>5,44; 96,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 89,83</t>
+          <t>-0,24; 91,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 421,25</t>
+          <t>-4,15; 351,15</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 88,02</t>
+          <t>16,05; 89,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 78,77</t>
+          <t>5,03; 76,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,49; 259,56</t>
+          <t>18,73; 257,08</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 4,07</t>
+          <t>-1,66; 4,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,18</t>
+          <t>-2,11; 3,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 0,9</t>
+          <t>-3,7; 0,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,35</t>
+          <t>-0,23; 6,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,23</t>
+          <t>0,07; 6,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,86</t>
+          <t>-1,09; 3,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,65</t>
+          <t>-0,14; 4,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,69</t>
+          <t>-0,14; 3,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 1,82</t>
+          <t>-1,59; 1,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,69; 139,88</t>
+          <t>-33,47; 145,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 110,13</t>
+          <t>-40,03; 110,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,82; 40,6</t>
+          <t>-67,3; 40,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 224,67</t>
+          <t>-6,88; 219,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 233,5</t>
+          <t>-4,1; 208,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 147,14</t>
+          <t>-20,85; 150,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 145,12</t>
+          <t>-4,21; 140,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 117,58</t>
+          <t>-5,85; 112,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 59,69</t>
+          <t>-32,42; 54,95</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,88</t>
+          <t>0,18; 1,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 1,51</t>
+          <t>-0,23; 1,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 1,88</t>
+          <t>-0,18; 1,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,62</t>
+          <t>0,58; 2,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,45</t>
+          <t>0,5; 2,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,25; 10,07</t>
+          <t>0,31; 10,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,03</t>
+          <t>0,61; 1,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,72</t>
+          <t>0,47; 1,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,34</t>
+          <t>0,37; 5,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,57; 94,42</t>
+          <t>4,34; 91,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 76,28</t>
+          <t>-9,67; 71,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 94,27</t>
+          <t>-6,46; 89,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,36; 75,77</t>
+          <t>14,12; 81,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,87; 69,02</t>
+          <t>12,27; 73,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,8; 249,31</t>
+          <t>8,23; 261,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,24; 68,82</t>
+          <t>17,77; 68,55</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,46; 59,41</t>
+          <t>13,25; 60,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,02; 164,25</t>
+          <t>10,05; 168,38</t>
         </is>
       </c>
     </row>
